--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -364,14 +364,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B1">
         <v>222</v>
